--- a/biology/Botanique/Muttart_Conservatory/Muttart_Conservatory.xlsx
+++ b/biology/Botanique/Muttart_Conservatory/Muttart_Conservatory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Muttart Conservatory (« Jardin d'hiver Muttart ») est un jardin botanique situé à Edmonton au Canada. Il est l'un des monuments les plus connus de la ville avec quatre pyramides de verre caractéristiques, des jardins publics et des serres.
 Les pyramides présentent des espèces végétales trouvées dans trois biomes différents (climat tempéré, climat aride et climat tropical), la quatrième étant réservée pour les présentations saisonnières. Une cinquième pyramide, plus petite, sert de puits de lumière.
